--- a/dev/Indicador1_Complejidad_Media.xlsx
+++ b/dev/Indicador1_Complejidad_Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevSpace\atlantisprojects\divicharts\wordpress\wp-content\plugins\aesa\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A78041-52A4-4820-8411-24D2514C8D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A623D9FA-A85F-48AB-8371-8AF4A2EB44BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DEA909B-0EF1-4D21-BE57-E9F2D7DBC28A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12360" xr2:uid="{9DEA909B-0EF1-4D21-BE57-E9F2D7DBC28A}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1452,6 +1452,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1471,9 +1474,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2849,7 +2849,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2987,7 +2987,9 @@
       <c r="L4" s="8">
         <v>2023</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="8">
+        <v>2024</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -3003,7 +3005,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="39" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3039,7 +3041,9 @@
       <c r="L5" s="11">
         <v>214</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="11">
+        <v>214</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3055,7 +3059,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="39" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -3091,7 +3095,9 @@
       <c r="L6" s="11">
         <v>0</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -3143,7 +3149,9 @@
       <c r="L7" s="11">
         <v>0</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -3195,7 +3203,9 @@
       <c r="L8" s="11">
         <v>0</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -3247,7 +3257,9 @@
       <c r="L9" s="11">
         <v>146925</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="11">
+        <v>146925</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -3299,7 +3311,9 @@
       <c r="L10" s="11">
         <v>7691</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="11">
+        <v>7691</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -3351,7 +3365,9 @@
       <c r="L11" s="11">
         <v>0</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -3403,7 +3419,9 @@
       <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3455,7 +3473,9 @@
       <c r="L13" s="11">
         <v>0</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3499,7 +3519,9 @@
       <c r="L14" s="11">
         <v>93</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="11">
+        <v>93</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3551,7 +3573,9 @@
       <c r="L15" s="11">
         <v>661</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="11">
+        <v>661</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3603,7 +3627,9 @@
       <c r="L16" s="11">
         <v>597</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="11">
+        <v>597</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3655,7 +3681,9 @@
       <c r="L17" s="11">
         <v>90748</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="11">
+        <v>90748</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3707,7 +3735,9 @@
       <c r="L18" s="11">
         <v>3768</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="11">
+        <v>3768</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3759,7 +3789,9 @@
       <c r="L19" s="11">
         <v>500</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="11">
+        <v>500</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3811,7 +3843,9 @@
       <c r="L20" s="11">
         <v>15407</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="11">
+        <v>15407</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3863,7 +3897,9 @@
       <c r="L21" s="11">
         <v>7871</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="11">
+        <v>7871</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3915,7 +3951,9 @@
       <c r="L22" s="11">
         <v>895</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="11">
+        <v>895</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3967,7 +4005,9 @@
       <c r="L23" s="11">
         <v>0</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4019,7 +4059,9 @@
       <c r="L24" s="11">
         <v>868</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="11">
+        <v>868</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4071,7 +4113,9 @@
       <c r="L25" s="11">
         <v>392016</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="11">
+        <v>392016</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4123,7 +4167,9 @@
       <c r="L26" s="11">
         <v>700</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="11">
+        <v>700</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4175,7 +4221,9 @@
       <c r="L27" s="11">
         <v>451</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="11">
+        <v>451</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4227,7 +4275,9 @@
       <c r="L28" s="11">
         <v>360374</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="11">
+        <v>360374</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4279,7 +4329,9 @@
       <c r="L29" s="11">
         <v>232</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" s="11">
+        <v>232</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4331,7 +4383,9 @@
       <c r="L30" s="11">
         <v>0</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4383,7 +4437,9 @@
       <c r="L31" s="11">
         <v>0</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4435,7 +4491,9 @@
       <c r="L32" s="11">
         <v>0</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4487,7 +4545,9 @@
       <c r="L33" s="11">
         <v>11507</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="11">
+        <v>11507</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4539,7 +4599,9 @@
       <c r="L34" s="11">
         <v>431</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" s="11">
+        <v>431</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4591,7 +4653,9 @@
       <c r="L35" s="11">
         <v>0</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4643,7 +4707,9 @@
       <c r="L36" s="11">
         <v>30794</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" s="11">
+        <v>30794</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4695,7 +4761,9 @@
       <c r="L37" s="11">
         <v>6386</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" s="11">
+        <v>6386</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -4747,7 +4815,9 @@
       <c r="L38" s="11">
         <v>101936</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" s="11">
+        <v>101936</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -4799,7 +4869,9 @@
       <c r="L39" s="11">
         <v>0</v>
       </c>
-      <c r="M39" s="2"/>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -4851,7 +4923,9 @@
       <c r="L40" s="11">
         <v>182</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" s="11">
+        <v>182</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -4903,7 +4977,9 @@
       <c r="L41" s="11">
         <v>42550</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" s="11">
+        <v>42550</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -4955,7 +5031,9 @@
       <c r="L42" s="11">
         <v>6393</v>
       </c>
-      <c r="M42" s="2"/>
+      <c r="M42" s="11">
+        <v>6393</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -5007,7 +5085,9 @@
       <c r="L43" s="11">
         <v>2286</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" s="11">
+        <v>2286</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -5059,7 +5139,9 @@
       <c r="L44" s="11">
         <v>92538</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" s="11">
+        <v>92538</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -5111,7 +5193,9 @@
       <c r="L45" s="11">
         <v>149133</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" s="11">
+        <v>149133</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -5163,7 +5247,9 @@
       <c r="L46" s="11">
         <v>3982</v>
       </c>
-      <c r="M46" s="2"/>
+      <c r="M46" s="11">
+        <v>3982</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -5215,7 +5301,9 @@
       <c r="L47" s="11">
         <v>3795</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" s="11">
+        <v>3795</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -5267,7 +5355,9 @@
       <c r="L48" s="11">
         <v>2154</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" s="11">
+        <v>2154</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -5319,7 +5409,9 @@
       <c r="L49" s="11">
         <v>327</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" s="11">
+        <v>327</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -5371,7 +5463,9 @@
       <c r="L50" s="11">
         <v>46156</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" s="11">
+        <v>46156</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -5423,7 +5517,9 @@
       <c r="L51" s="11">
         <v>0</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -5475,7 +5571,9 @@
       <c r="L52" s="11">
         <v>197</v>
       </c>
-      <c r="M52" s="2"/>
+      <c r="M52" s="11">
+        <v>197</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -5527,7 +5625,9 @@
       <c r="L53" s="11">
         <v>0</v>
       </c>
-      <c r="M53" s="2"/>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -5579,7 +5679,9 @@
       <c r="L54" s="11">
         <v>0</v>
       </c>
-      <c r="M54" s="2"/>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -5631,7 +5733,9 @@
       <c r="L55" s="11">
         <v>0</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -5683,7 +5787,9 @@
       <c r="L56" s="11">
         <v>0</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -5735,7 +5841,9 @@
       <c r="L57" s="11">
         <v>0</v>
       </c>
-      <c r="M57" s="2"/>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -5787,7 +5895,9 @@
       <c r="L58" s="11">
         <v>7476</v>
       </c>
-      <c r="M58" s="2"/>
+      <c r="M58" s="11">
+        <v>7476</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -5839,7 +5949,9 @@
       <c r="L59" s="11">
         <v>0</v>
       </c>
-      <c r="M59" s="2"/>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -5855,10 +5967,10 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="40"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="12">
         <v>1311720</v>
       </c>
@@ -5889,7 +6001,9 @@
       <c r="L60" s="12">
         <v>1538234</v>
       </c>
-      <c r="M60" s="2"/>
+      <c r="M60" s="12">
+        <v>1538234</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -12396,11 +12510,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -12659,7 +12773,7 @@
       <c r="W9" s="21"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="44">
         <v>7</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -12690,7 +12804,7 @@
       <c r="W10" s="21"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="30" t="s">
         <v>80</v>
       </c>
@@ -12967,7 +13081,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="46">
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -12998,7 +13112,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="36" t="s">
         <v>97</v>
       </c>
@@ -13027,7 +13141,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="36" t="s">
         <v>99</v>
       </c>
